--- a/data/mgmt_plans/ccca/ccca_whale_closure_districts.xlsx
+++ b/data/mgmt_plans/ccca/ccca_whale_closure_districts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/dungeness/data/mgmt_plans/ccca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C20F628-DA2D-624C-BE04-738FEC9F0014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBE1B4A-F970-9042-A542-B3B0228CD8AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39760" yWindow="6280" windowWidth="28040" windowHeight="17440" xr2:uid="{423CED14-81AF-2E47-A6C1-74A44D1574E7}"/>
+    <workbookView xWindow="23160" yWindow="6280" windowWidth="28040" windowHeight="17440" xr2:uid="{423CED14-81AF-2E47-A6C1-74A44D1574E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Oregon border</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Point Conception</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>41.027495, -124.111512</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,16 +589,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -607,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -618,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,10 +665,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -687,10 +687,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -698,10 +698,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,10 +720,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -734,10 +734,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -839,10 +839,10 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
